--- a/Meetresultaten.xlsx
+++ b/Meetresultaten.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="Uitvoeringstijd" sheetId="1" r:id="rId1"/>
+    <sheet name="K_gem en k_max" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>punten=</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>Test10:</t>
+  </si>
+  <si>
+    <t>punten:</t>
+  </si>
+  <si>
+    <t>eenvoudig</t>
+  </si>
+  <si>
+    <t>1e</t>
+  </si>
+  <si>
+    <t>(uitvoeringstijd in milliseconden)</t>
   </si>
 </sst>
 </file>
@@ -143,625 +155,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="0"/>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Blad1!$B$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-925B-4477-B8ED-553E21258F5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>1e variant</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Blad1!$B$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-925B-4477-B8ED-553E21258F5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Eenvoudig</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Blad1!$B$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2127</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8456</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-925B-4477-B8ED-553E21258F5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Blad1!$B$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-925B-4477-B8ED-553E21258F5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>1e variant</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Blad1!$B$3:$I$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-925B-4477-B8ED-553E21258F5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>Eenvoudig</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Blad1!$B$1:$I$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Blad1!$B$2:$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2127</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8456</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-925B-4477-B8ED-553E21258F5C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1991434512"/>
-        <c:axId val="1991432432"/>
-        <c:extLst/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1991434512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1991432432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1991432432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1991434512"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -888,7 +281,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$B$1:$I$1</c:f>
+              <c:f>Uitvoeringstijd!$B$1:$I$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -921,7 +314,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$B$3:$I$3</c:f>
+              <c:f>Uitvoeringstijd!$B$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1005,7 +398,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Blad1!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>Uitvoeringstijd!$B$1:$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1035,7 +428,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Blad1!$B$2:$F$2</c15:sqref>
+                          <c15:sqref>Uitvoeringstijd!$B$2:$F$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1359,7 +752,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -1485,7 +878,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad1!$B$9:$K$9</c:f>
+              <c:f>Uitvoeringstijd!$B$9:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1524,7 +917,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad1!$B$10:$K$10</c:f>
+              <c:f>Uitvoeringstijd!$B$10:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1614,7 +1007,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Blad1!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>Uitvoeringstijd!$B$1:$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1644,7 +1037,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Blad1!$B$3:$F$3</c15:sqref>
+                          <c15:sqref>Uitvoeringstijd!$B$3:$F$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1968,7 +1361,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -2008,7 +1401,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad2!$B$1:$H$1</c:f>
+              <c:f>'K_gem en k_max'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2038,7 +1431,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad2!$B$3:$H$3</c:f>
+              <c:f>'K_gem en k_max'!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2093,7 +1486,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad2!$B$1:$H$1</c:f>
+              <c:f>'K_gem en k_max'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2123,7 +1516,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad2!$B$6:$H$6</c:f>
+              <c:f>'K_gem en k_max'!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2178,7 +1571,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad2!$B$1:$H$1</c:f>
+              <c:f>'K_gem en k_max'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2208,7 +1601,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad2!$B$9:$H$9</c:f>
+              <c:f>'K_gem en k_max'!$B$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2263,7 +1656,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad2!$B$1:$H$1</c:f>
+              <c:f>'K_gem en k_max'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2293,7 +1686,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad2!$B$12:$H$12</c:f>
+              <c:f>'K_gem en k_max'!$B$12:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2348,7 +1741,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad2!$B$1:$H$1</c:f>
+              <c:f>'K_gem en k_max'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2378,7 +1771,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad2!$B$15:$H$15</c:f>
+              <c:f>'K_gem en k_max'!$B$15:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2433,7 +1826,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad2!$B$1:$H$1</c:f>
+              <c:f>'K_gem en k_max'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2463,7 +1856,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad2!$B$18:$H$18</c:f>
+              <c:f>'K_gem en k_max'!$B$18:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2520,7 +1913,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad2!$B$1:$H$1</c:f>
+              <c:f>'K_gem en k_max'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2550,7 +1943,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad2!$B$21:$H$21</c:f>
+              <c:f>'K_gem en k_max'!$B$21:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2607,7 +2000,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad2!$B$1:$H$1</c:f>
+              <c:f>'K_gem en k_max'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2637,7 +2030,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad2!$B$24:$H$24</c:f>
+              <c:f>'K_gem en k_max'!$B$24:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2694,7 +2087,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad2!$B$1:$H$1</c:f>
+              <c:f>'K_gem en k_max'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2724,7 +2117,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad2!$B$27:$H$27</c:f>
+              <c:f>'K_gem en k_max'!$B$27:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2781,7 +2174,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad2!$B$1:$H$1</c:f>
+              <c:f>'K_gem en k_max'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2811,7 +2204,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad2!$B$30:$H$30</c:f>
+              <c:f>'K_gem en k_max'!$B$30:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3027,7 +2420,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -3098,7 +2491,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Blad2!$B$1:$H$1</c:f>
+              <c:f>'K_gem en k_max'!$B$1:$H$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3128,7 +2521,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blad2!$B$34:$H$34</c:f>
+              <c:f>'K_gem en k_max'!$B$34:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5572,21 +4965,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="Grafiek 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5602,48 +4997,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafiek 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5658,7 +5021,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5995,18 +5358,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="A4:J4"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6035,7 +5400,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6054,8 +5419,11 @@
       <c r="F2">
         <v>27200</v>
       </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6084,7 +5452,36 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>74</v>
+      </c>
+      <c r="F4">
+        <v>130</v>
+      </c>
+      <c r="G4">
+        <v>308</v>
+      </c>
+      <c r="H4">
+        <v>696</v>
+      </c>
+      <c r="I4">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -6119,7 +5516,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -6154,7 +5551,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -6189,9 +5586,128 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="E14">
+        <v>10000</v>
+      </c>
+      <c r="F14">
+        <v>100000</v>
+      </c>
+      <c r="G14">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>482</v>
+      </c>
+      <c r="F15">
+        <v>48212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>144</v>
+      </c>
+      <c r="G17">
+        <v>2203</v>
       </c>
     </row>
   </sheetData>

--- a/Meetresultaten.xlsx
+++ b/Meetresultaten.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Uitvoeringstijd" sheetId="1" r:id="rId1"/>
     <sheet name="K_gem en k_max" sheetId="2" r:id="rId2"/>
     <sheet name="k_gem" sheetId="3" r:id="rId3"/>
-    <sheet name="k_max" sheetId="4" r:id="rId4"/>
+    <sheet name="k_gem Dimensies" sheetId="5" r:id="rId4"/>
+    <sheet name="k_max" sheetId="4" r:id="rId5"/>
+    <sheet name="Tijd Dimensies" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>punten=</t>
   </si>
@@ -99,6 +101,18 @@
   </si>
   <si>
     <t>Als punten *10 ==&gt; k_max * 2</t>
+  </si>
+  <si>
+    <t>dimensie:</t>
+  </si>
+  <si>
+    <t>k_gem</t>
+  </si>
+  <si>
+    <t>N = 10000</t>
+  </si>
+  <si>
+    <t>uitvoeringstijd:</t>
   </si>
 </sst>
 </file>
@@ -3763,6 +3777,487 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>gemiddelde K_gem over 10 experimenten </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'k_gem Dimensies'!$C$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'k_gem Dimensies'!$C$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.2751399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.131940000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.034009999999981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230.55315999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>404.31661999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>680.64059999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>961.79549999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1279.3042799999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AF0-4F1A-B4D3-CC439A777137}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1246611919"/>
+        <c:axId val="1246609839"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1246611919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Dimensies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1246609839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1246609839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>K_gem</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1246611919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>gemiddelde K_max over 100 experimenten</a:t>
             </a:r>
@@ -4147,6 +4642,486 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1094836047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>gemiddelde uitvoeringstijd over 10 experimenten </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tijd Dimensies'!$C$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tijd Dimensies'!$C$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>163.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E20C-431E-AB29-6F0ED6BE04FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1217173471"/>
+        <c:axId val="1217174303"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1217173471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>DImensies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1217174303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1217174303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Uitvoeringstijd</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1217173471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4475,6 +5450,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7572,6 +8627,1038 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8290,6 +10377,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>105</xdr:row>
@@ -8304,6 +10426,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Grafiek 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9762,7 +11919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T106"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A96" workbookViewId="0">
       <selection activeCell="K104" sqref="K104:T105"/>
     </sheetView>
   </sheetViews>
@@ -14612,43 +16769,43 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1">
-        <f>AVERAGE(K3:K102)</f>
+        <f t="shared" ref="K105:T105" si="0">AVERAGE(K3:K102)</f>
         <v>1.2836299999999996</v>
       </c>
       <c r="L105" s="1">
-        <f>AVERAGE(L3:L102)</f>
+        <f t="shared" si="0"/>
         <v>1.3502200000000004</v>
       </c>
       <c r="M105" s="1">
-        <f>AVERAGE(M3:M102)</f>
+        <f t="shared" si="0"/>
         <v>1.3352166666666636</v>
       </c>
       <c r="N105" s="1">
-        <f>AVERAGE(N3:N102)</f>
+        <f t="shared" si="0"/>
         <v>1.2998325000000002</v>
       </c>
       <c r="O105" s="1">
-        <f>AVERAGE(O3:O102)</f>
+        <f t="shared" si="0"/>
         <v>1.3808160000000003</v>
       </c>
       <c r="P105" s="1">
-        <f>AVERAGE(P3:P102)</f>
+        <f t="shared" si="0"/>
         <v>1.3020983333333302</v>
       </c>
       <c r="Q105" s="1">
-        <f>AVERAGE(Q3:Q102)</f>
+        <f t="shared" si="0"/>
         <v>1.3575371428571388</v>
       </c>
       <c r="R105" s="1">
-        <f>AVERAGE(R3:R102)</f>
+        <f t="shared" si="0"/>
         <v>1.3978574999999998</v>
       </c>
       <c r="S105" s="1">
-        <f>AVERAGE(S3:S102)</f>
+        <f t="shared" si="0"/>
         <v>1.3883022222222179</v>
       </c>
       <c r="T105" s="1">
-        <f>AVERAGE(T3:T102)</f>
+        <f t="shared" si="0"/>
         <v>1.3970500000000003</v>
       </c>
     </row>
@@ -14708,10 +16865,387 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="A1:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.6102000000000001</v>
+      </c>
+      <c r="D4" s="8">
+        <v>21.1694</v>
+      </c>
+      <c r="E4" s="8">
+        <v>89.954099999999997</v>
+      </c>
+      <c r="F4" s="8">
+        <v>250.39840000000001</v>
+      </c>
+      <c r="G4" s="8">
+        <v>352.01409999999998</v>
+      </c>
+      <c r="H4" s="8">
+        <v>687.54899999999998</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1038.9139</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1372.502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="8">
+        <v>1.7667999999999999</v>
+      </c>
+      <c r="D5" s="8">
+        <v>22.336600000000001</v>
+      </c>
+      <c r="E5" s="8">
+        <v>108.2106</v>
+      </c>
+      <c r="F5" s="8">
+        <v>264.92230000000001</v>
+      </c>
+      <c r="G5" s="8">
+        <v>405.49970000000002</v>
+      </c>
+      <c r="H5" s="8">
+        <v>576.04309999999998</v>
+      </c>
+      <c r="I5" s="8">
+        <v>973.54759999999999</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1280.2815000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="8">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="D6" s="8">
+        <v>33.006300000000003</v>
+      </c>
+      <c r="E6" s="8">
+        <v>96.388499999999993</v>
+      </c>
+      <c r="F6" s="8">
+        <v>147.94460000000001</v>
+      </c>
+      <c r="G6" s="8">
+        <v>448.29419999999999</v>
+      </c>
+      <c r="H6" s="8">
+        <v>766.12329999999997</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1042.0632000000001</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1280.8397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="8">
+        <v>0.5726</v>
+      </c>
+      <c r="D7" s="8">
+        <v>16.891200000000001</v>
+      </c>
+      <c r="E7" s="8">
+        <v>86.4375</v>
+      </c>
+      <c r="F7" s="8">
+        <v>264.20519999999999</v>
+      </c>
+      <c r="G7" s="8">
+        <v>392.98779999999999</v>
+      </c>
+      <c r="H7" s="8">
+        <v>711.85720000000003</v>
+      </c>
+      <c r="I7" s="8">
+        <v>854.95699999999999</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1285.5152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="8">
+        <v>1.6549</v>
+      </c>
+      <c r="D8" s="8">
+        <v>26.607800000000001</v>
+      </c>
+      <c r="E8" s="8">
+        <v>76.819299999999998</v>
+      </c>
+      <c r="F8" s="8">
+        <v>240.86920000000001</v>
+      </c>
+      <c r="G8" s="8">
+        <v>442.19580000000002</v>
+      </c>
+      <c r="H8" s="8">
+        <v>574.3252</v>
+      </c>
+      <c r="I8" s="8">
+        <v>951.4135</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1381.5065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="8">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="D9" s="8">
+        <v>16.476199999999999</v>
+      </c>
+      <c r="E9" s="8">
+        <v>55.243899999999996</v>
+      </c>
+      <c r="F9" s="8">
+        <v>173.18270000000001</v>
+      </c>
+      <c r="G9" s="8">
+        <v>476.46899999999999</v>
+      </c>
+      <c r="H9" s="8">
+        <v>714.74630000000002</v>
+      </c>
+      <c r="I9" s="8">
+        <v>961.41499999999996</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1315.2329999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="8">
+        <v>1.3922000000000001</v>
+      </c>
+      <c r="D10" s="8">
+        <v>21.416399999999999</v>
+      </c>
+      <c r="E10" s="8">
+        <v>76.962000000000003</v>
+      </c>
+      <c r="F10" s="8">
+        <v>240.60300000000001</v>
+      </c>
+      <c r="G10" s="8">
+        <v>417.66109999999998</v>
+      </c>
+      <c r="H10" s="8">
+        <v>637.85230000000001</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1035.0333000000001</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1204.4663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="8">
+        <v>1.3002</v>
+      </c>
+      <c r="D11" s="8">
+        <v>25.263000000000002</v>
+      </c>
+      <c r="E11" s="8">
+        <v>88.096199999999996</v>
+      </c>
+      <c r="F11" s="8">
+        <v>283.34449999999998</v>
+      </c>
+      <c r="G11" s="8">
+        <v>292.47969999999998</v>
+      </c>
+      <c r="H11" s="8">
+        <v>646.43849999999998</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1055.4464</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1451.7560000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="8">
+        <v>1.1960999999999999</v>
+      </c>
+      <c r="D12" s="8">
+        <v>17.148599999999998</v>
+      </c>
+      <c r="E12" s="8">
+        <v>97.766400000000004</v>
+      </c>
+      <c r="F12" s="8">
+        <v>237.066</v>
+      </c>
+      <c r="G12" s="8">
+        <v>456.2593</v>
+      </c>
+      <c r="H12" s="8">
+        <v>775.76350000000002</v>
+      </c>
+      <c r="I12" s="8">
+        <v>907.28779999999995</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1127.3179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="8">
+        <v>1.5408999999999999</v>
+      </c>
+      <c r="D13" s="8">
+        <v>31.003900000000002</v>
+      </c>
+      <c r="E13" s="8">
+        <v>84.461600000000004</v>
+      </c>
+      <c r="F13" s="8">
+        <v>202.9957</v>
+      </c>
+      <c r="G13" s="8">
+        <v>359.30549999999999</v>
+      </c>
+      <c r="H13" s="8">
+        <v>715.70759999999996</v>
+      </c>
+      <c r="I13" s="8">
+        <v>797.87729999999999</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1093.6247000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <f>AVERAGE(C4:C13)</f>
+        <v>1.2751399999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ref="D16:J16" si="0">AVERAGE(D4:D13)</f>
+        <v>23.131940000000004</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>86.034009999999981</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>230.55315999999999</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>404.31661999999994</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>680.64059999999995</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>961.79549999999995</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>1279.3042799999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20110,4 +22644,378 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7">
+        <v>65</v>
+      </c>
+      <c r="F4" s="7">
+        <v>26</v>
+      </c>
+      <c r="G4" s="7">
+        <v>50</v>
+      </c>
+      <c r="H4" s="7">
+        <v>69</v>
+      </c>
+      <c r="I4" s="7">
+        <v>120</v>
+      </c>
+      <c r="J4" s="7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7">
+        <v>39</v>
+      </c>
+      <c r="H5" s="7">
+        <v>57</v>
+      </c>
+      <c r="I5" s="7">
+        <v>93</v>
+      </c>
+      <c r="J5" s="7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7">
+        <v>40</v>
+      </c>
+      <c r="H6" s="7">
+        <v>63</v>
+      </c>
+      <c r="I6" s="7">
+        <v>112</v>
+      </c>
+      <c r="J6" s="7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7">
+        <v>43</v>
+      </c>
+      <c r="H7" s="7">
+        <v>73</v>
+      </c>
+      <c r="I7" s="7">
+        <v>78</v>
+      </c>
+      <c r="J7" s="7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7">
+        <v>31</v>
+      </c>
+      <c r="H8" s="7">
+        <v>72</v>
+      </c>
+      <c r="I8" s="7">
+        <v>128</v>
+      </c>
+      <c r="J8" s="7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4</v>
+      </c>
+      <c r="F9" s="7">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7">
+        <v>41</v>
+      </c>
+      <c r="H9" s="7">
+        <v>61</v>
+      </c>
+      <c r="I9" s="7">
+        <v>74</v>
+      </c>
+      <c r="J9" s="7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7">
+        <v>39</v>
+      </c>
+      <c r="H10" s="7">
+        <v>77</v>
+      </c>
+      <c r="I10" s="7">
+        <v>118</v>
+      </c>
+      <c r="J10" s="7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7">
+        <v>9</v>
+      </c>
+      <c r="G11" s="7">
+        <v>24</v>
+      </c>
+      <c r="H11" s="7">
+        <v>64</v>
+      </c>
+      <c r="I11" s="7">
+        <v>101</v>
+      </c>
+      <c r="J11" s="7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7">
+        <v>39</v>
+      </c>
+      <c r="H12" s="7">
+        <v>56</v>
+      </c>
+      <c r="I12" s="7">
+        <v>108</v>
+      </c>
+      <c r="J12" s="7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7">
+        <v>6</v>
+      </c>
+      <c r="F13" s="7">
+        <v>22</v>
+      </c>
+      <c r="G13" s="7">
+        <v>38</v>
+      </c>
+      <c r="H13" s="7">
+        <v>66</v>
+      </c>
+      <c r="I13" s="7">
+        <v>94</v>
+      </c>
+      <c r="J13" s="7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>AVERAGE(C4:C13)</f>
+        <v>0.3</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:J16" si="0">AVERAGE(D4:D13)</f>
+        <v>2.9</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>11.8</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>38.4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>65.8</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>102.6</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>163.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Meetresultaten.xlsx
+++ b/Meetresultaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Uitvoeringstijd" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>punten=</t>
   </si>
@@ -114,12 +114,18 @@
   <si>
     <t>uitvoeringstijd:</t>
   </si>
+  <si>
+    <t>2e na optimalisatie:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e na optimalisatie: </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +149,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -173,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -195,6 +207,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,6 +868,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1182,6 +1198,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1299,6 +1316,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2829,7 +2847,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3012,7 +3029,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3130,7 +3146,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3291,7 +3306,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3509,7 +3523,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3627,7 +3640,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3783,7 +3795,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3990,7 +4001,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4108,7 +4118,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4730,7 +4739,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4936,7 +4944,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5054,7 +5061,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10180,13 +10186,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10218,7 +10224,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10741,10 +10747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10864,6 +10870,35 @@
         <v>1477</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="12">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12">
+        <v>10</v>
+      </c>
+      <c r="D5" s="12">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12">
+        <v>13</v>
+      </c>
+      <c r="F5" s="12">
+        <v>19</v>
+      </c>
+      <c r="G5" s="12">
+        <v>35</v>
+      </c>
+      <c r="H5" s="12">
+        <v>99</v>
+      </c>
+      <c r="I5" s="12">
+        <v>131</v>
+      </c>
+    </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
@@ -11004,93 +11039,151 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>1000</v>
-      </c>
-      <c r="E14">
-        <v>10000</v>
-      </c>
-      <c r="F14">
-        <v>100000</v>
-      </c>
-      <c r="G14">
-        <v>1000000</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="12">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12">
+        <v>3</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>2</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2</v>
+      </c>
+      <c r="G13" s="12">
+        <v>3</v>
+      </c>
+      <c r="H13" s="12">
+        <v>2</v>
+      </c>
+      <c r="I13" s="12">
+        <v>2</v>
+      </c>
+      <c r="J13" s="12">
+        <v>2</v>
+      </c>
+      <c r="K13" s="12">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="E15">
-        <v>482</v>
+        <v>10000</v>
       </c>
       <c r="F15">
-        <v>48212</v>
+        <v>100000</v>
+      </c>
+      <c r="G15">
+        <v>1000000</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>482</v>
       </c>
       <c r="F16">
-        <v>18</v>
-      </c>
-      <c r="G16">
-        <v>58</v>
+        <v>48212</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>7</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>12</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>144</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>2203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>42</v>
+      </c>
+      <c r="G19">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -17244,7 +17337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>

--- a/Meetresultaten.xlsx
+++ b/Meetresultaten.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>punten=</t>
   </si>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -205,10 +205,16 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -275,6 +281,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -591,6 +598,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -708,6 +716,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -775,6 +784,1447 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2001086832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>gemiddelde K_max over 100 experimenten</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>kmax</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>k_max!$N$104:$R$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>k_max!$N$103:$R$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7ECE-41E2-800B-A4615922C3BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1094836047"/>
+        <c:axId val="1094837711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1094836047"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>aantal punten</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1094837711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1094837711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>K-max</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1094836047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>gemiddelde</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> K_max over 20 experimenten</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>k_max!$U$24:$AH$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>409600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>819200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>k_max!$U$25:$AH$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0368-433C-8F2A-48D07559FB7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="837211487"/>
+        <c:axId val="837204831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="837211487"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Aantal punten </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837204831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="837204831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>K_max</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837211487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>gemiddelde uitvoeringstijd over 10 experimenten </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tijd Dimensies'!$C$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tijd Dimensies'!$C$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>163.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E20C-431E-AB29-6F0ED6BE04FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1217173471"/>
+        <c:axId val="1217174303"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1217173471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>DImensies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1217174303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1217174303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Uitvoeringstijd</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1217173471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1446,6 +2896,733 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Vergelijing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> uitvoeringssnelheid doorlooplijnalgortitme</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Eerste variant</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Uitvoeringstijd!$B$22:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>409600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>819200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Uitvoeringstijd!$B$23:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95DE-48D4-8FFF-99F87BEC6D45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tweede variant</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Uitvoeringstijd!$B$22:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>409600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>819200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Uitvoeringstijd!$B$24:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-95DE-48D4-8FFF-99F87BEC6D45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1016559391"/>
+        <c:axId val="1016563135"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1016559391"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>aantal</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> punten</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016563135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1016563135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>uitvoeringstijd</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-BE" baseline="0"/>
+                  <a:t> (in milliseconden)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1016559391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2491,7 +4668,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -2802,7 +4979,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -2847,6 +5024,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3029,6 +5207,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3146,6 +5325,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3261,7 +5441,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -3306,6 +5486,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3523,6 +5704,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3640,6 +5822,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3755,7 +5938,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
@@ -3790,11 +5973,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-BE"/>
-              <a:t>gemiddelde K_gem over 10 experimenten </a:t>
+              <a:t>gemiddelde K_gem</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> over 20 experimenten</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3855,21 +6044,512 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>k_gem!$X$26:$AK$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>102400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>204800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>409600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>819200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>k_gem!$X$27:$AK$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.1600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4215000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1836249999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3265312499999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4574218749999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3988281249999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4004023437500002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3225156249999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.33934765625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4134038085937499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2320292968750002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3681998291015627</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2790045776367172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A060-47AC-91A0-66F5970C2D12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="837197759"/>
+        <c:axId val="837196927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="837197759"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>aantal punten</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837196927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="837196927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>K_gem</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837197759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>gemiddelde K_gem over 10 experimenten </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'k_gem Dimensies'!$C$15:$J$15</c:f>
@@ -4001,6 +6681,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4118,6 +6799,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4233,950 +6915,127 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>gemiddelde K_max over 100 experimenten</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>kmax</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>k_max!$N$104:$R$104</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>k_max!$N$103:$R$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.2599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.29</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7ECE-41E2-800B-A4615922C3BF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1094836047"/>
-        <c:axId val="1094837711"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1094836047"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-BE"/>
-                  <a:t>aantal punten</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1094837711"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1094837711"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-BE"/>
-                  <a:t>K-max</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1094836047"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nl-BE"/>
-              <a:t>gemiddelde uitvoeringstijd over 10 experimenten </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Tijd Dimensies'!$C$15:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Tijd Dimensies'!$C$16:$J$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>102.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>163.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E20C-431E-AB29-6F0ED6BE04FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1217173471"/>
-        <c:axId val="1217174303"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1217173471"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-BE"/>
-                  <a:t>DImensies</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1217174303"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1217174303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-BE"/>
-                  <a:t>Uitvoeringstijd</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="nl-BE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1217173471"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6052,7 +7911,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6568,7 +8427,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7084,7 +8943,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7600,7 +9459,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8116,7 +9975,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8632,7 +10491,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9148,7 +11007,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9664,7 +11523,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10180,20 +12039,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10216,15 +13623,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10241,6 +13648,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10376,6 +13813,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10441,6 +13908,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10747,17 +14244,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="34" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10874,28 +14371,28 @@
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>10</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>10</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>11</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>13</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>19</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>35</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>99</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>131</v>
       </c>
     </row>
@@ -11043,34 +14540,34 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>5</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>3</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>2</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>2</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>2</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>3</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>2</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>2</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>2</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>3</v>
       </c>
     </row>
@@ -11117,7 +14614,7 @@
         <v>48212</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -11140,7 +14637,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -11163,7 +14660,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -11185,6 +14682,176 @@
       <c r="G19">
         <v>177</v>
       </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <f>B22*2</f>
+        <v>200</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:O22" si="0">C22*2</f>
+        <v>400</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>25600</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>51200</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>102400</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>204800</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>409600</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>819200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1</v>
+      </c>
+      <c r="I23" s="11">
+        <v>2</v>
+      </c>
+      <c r="J23" s="11">
+        <v>5</v>
+      </c>
+      <c r="K23" s="11">
+        <v>3</v>
+      </c>
+      <c r="L23" s="11">
+        <v>11</v>
+      </c>
+      <c r="M23" s="11">
+        <v>7</v>
+      </c>
+      <c r="N23" s="11">
+        <v>21</v>
+      </c>
+      <c r="O23" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <v>3</v>
+      </c>
+      <c r="E24" s="11">
+        <v>2</v>
+      </c>
+      <c r="F24" s="11">
+        <v>2</v>
+      </c>
+      <c r="G24" s="11">
+        <v>4</v>
+      </c>
+      <c r="H24" s="11">
+        <v>3</v>
+      </c>
+      <c r="I24" s="11">
+        <v>8</v>
+      </c>
+      <c r="J24" s="11">
+        <v>5</v>
+      </c>
+      <c r="K24" s="11">
+        <v>18</v>
+      </c>
+      <c r="L24" s="11">
+        <v>16</v>
+      </c>
+      <c r="M24" s="11">
+        <v>30</v>
+      </c>
+      <c r="N24" s="11">
+        <v>61</v>
+      </c>
+      <c r="O24" s="11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12010,10 +15677,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T106"/>
+  <dimension ref="A1:AK106"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="K104" sqref="K104:T105"/>
+    <sheetView topLeftCell="R19" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12021,12 +15688,12 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>10</v>
       </c>
@@ -12072,8 +15739,63 @@
       <c r="T2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X2">
+        <v>100</v>
+      </c>
+      <c r="Y2">
+        <f>X2*2</f>
+        <v>200</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" ref="Z2:AK2" si="0">Y2*2</f>
+        <v>400</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>25600</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>51200</v>
+      </c>
+      <c r="AH2">
+        <f>AG2*2</f>
+        <v>102400</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>204800</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>409600</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>819200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C3" s="8">
         <v>0.9</v>
       </c>
@@ -12119,8 +15841,50 @@
       <c r="T3" s="10">
         <v>1.7054</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X3" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1.345</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1.0562499999999999</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1.691875</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1.3990625000000001</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>2.0182812499999998</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>1.4322656250000001</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>1.3826562499999999</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1.94771484375</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0.92226562499999998</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0.72335937500000003</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>1.9916308593750001</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>1.79936401367187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C4" s="8">
         <v>0.7</v>
       </c>
@@ -12166,8 +15930,50 @@
       <c r="T4" s="10">
         <v>1.4730000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X4" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.80125000000000002</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1.3171875</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1.3592187499999999</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>1.63546875</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0.98121093749999999</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1.31515625</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1.6422460937500001</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0.86970214843750004</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>1.7271435546875</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>1.2486743164062499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C5" s="8">
         <v>1</v>
       </c>
@@ -12213,8 +16019,50 @@
       <c r="T5" s="10">
         <v>1.5526</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X5" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1.765625</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>1.0709375000000001</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1.7454687499999999</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.63765625000000004</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1.3182812500000001</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1.3453320312499999</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1.0536035156250001</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>1.5074267578125</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>1.7476562499999999</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>1.4703442382812499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C6" s="8">
         <v>0.7</v>
       </c>
@@ -12260,8 +16108,50 @@
       <c r="T6" s="10">
         <v>1.3082</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X6" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1.2175</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1.3525</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1.3525</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1.463125</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0.72312500000000002</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1.182421875</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1.108671875</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1.89408203125</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1.007099609375</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>1.4736914062499999</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>1.46064208984375</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>1.5890234375000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C7" s="8">
         <v>0.7</v>
       </c>
@@ -12307,8 +16197,50 @@
       <c r="T7" s="10">
         <v>1.2843</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X7" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1.095</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1.3687499999999999</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1.7375</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>2.5031249999999998</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1.8782812499999999</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>1.521015625</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0.52679687500000005</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1.2359374999999999</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0.64676757812499996</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0.97506347656250003</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>1.1926025390624999</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0.77192871093750004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C8" s="8">
         <v>1.6</v>
       </c>
@@ -12354,8 +16286,50 @@
       <c r="T8" s="10">
         <v>1.3448</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X8" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>1.6812499999999999</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1.713125</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1.5443750000000001</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>1.9778125</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>1.2693749999999999</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0.70816406249999997</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0.98941406249999997</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>1.426220703125</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>1.0043261718750001</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>1.6484814453125001</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>1.3020556640625001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C9" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -12401,8 +16375,50 @@
       <c r="T9" s="10">
         <v>0.87690000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X9" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1.1174999999999999</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0.61187499999999995</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0.79781250000000004</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>1.51609375</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>1.7071093749999999</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>1.4923828125</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>1.248515625</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>1.7073046875</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0.82790527343749998</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0.42791748046875</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0.96666015625000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C10" s="8">
         <v>0.9</v>
       </c>
@@ -12448,8 +16464,50 @@
       <c r="T10" s="10">
         <v>1.2363</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X10" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1.655</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>2.2475000000000001</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>1.395</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0.37812499999999999</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>2.0353124999999999</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>1.3851562500000001</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>1.733125</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>2.1084765624999999</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>1.7774414062499999</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0.813837890625</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>1.4702099609374999</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0.99251708984374998</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>1.5129028320312501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C11" s="8">
         <v>0.9</v>
       </c>
@@ -12495,8 +16553,50 @@
       <c r="T11" s="10">
         <v>0.627</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X11" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0.81125000000000003</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>1.22875</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>1.37375</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>1.0674999999999999</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>1.1515625</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>1.6590625000000001</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>1.1732226562500001</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>1.7672656250000001</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0.99015624999999996</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>1.31722900390625</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>1.34828002929687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C12" s="8">
         <v>1</v>
       </c>
@@ -12542,8 +16642,50 @@
       <c r="T12" s="10">
         <v>1.9281999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X12" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>1.30125</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1.2887500000000001</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0.84562499999999996</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1.17578125</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>1.3846093749999999</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>1.0790625</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>1.18501953125</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>1.615185546875</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>1.1998559570312499</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>1.6751989746093701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C13" s="8">
         <v>0.5</v>
       </c>
@@ -12589,8 +16731,50 @@
       <c r="T13" s="10">
         <v>1.6544000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X13" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1.385</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1.2350000000000001</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1.1274999999999999</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1.379375</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0.88812500000000005</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>1.5882812500000001</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>1.6109374999999999</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>0.79218750000000004</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0.92376953125000005</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>1.402109375</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0.92952148437500004</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>1.0604272460937501</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>1.47272338867187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C14" s="8">
         <v>0.2</v>
       </c>
@@ -12636,8 +16820,50 @@
       <c r="T14" s="10">
         <v>1.9245000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X14" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>2.4224999999999999</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>1.165</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>1.39375</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>1.6187499999999999</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>1.15703125</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>1.6956249999999999</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>1.3732421875</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>1.4876171874999999</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>1.5387207031250001</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>1.3934033203125</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>1.1209228515625</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0.86224121093749995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C15" s="8">
         <v>1</v>
       </c>
@@ -12683,8 +16909,50 @@
       <c r="T15" s="10">
         <v>1.0004</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X15" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>1.0024999999999999</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0.70125000000000004</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1.4015625</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>1.7506250000000001</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0.91632812500000005</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>1.3199218749999999</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>1.0059570312499999</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>1.4683886718750001</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>1.2988867187499999</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>2.09645751953125</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>1.3780920410156201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C16" s="8">
         <v>1.4</v>
       </c>
@@ -12730,8 +16998,50 @@
       <c r="T16" s="10">
         <v>1.1194999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X16" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1.2275</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>1.7575000000000001</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>1.6756249999999999</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1.7084375000000001</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0.85781249999999998</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>1.444296875</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>1.5096093749999999</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0.68240234374999997</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>2.176982421875</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>1.9701806640624999</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>1.51008056640625</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>1.3679296875</v>
+      </c>
+    </row>
+    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C17" s="8">
         <v>0.6</v>
       </c>
@@ -12777,8 +17087,50 @@
       <c r="T17" s="10">
         <v>1.7521</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X17" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>2.1775000000000002</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0.70062500000000005</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>1.2746875</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>1.57515625</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>1.633046875</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>1.3948828124999999</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0.6590625</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>1.55375</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>1.2034765624999999</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>1.4534765624999999</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0.69021850585937505</v>
+      </c>
+    </row>
+    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C18" s="8">
         <v>0.8</v>
       </c>
@@ -12824,8 +17176,50 @@
       <c r="T18" s="10">
         <v>1.1102000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X18" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>1.6475</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1.54375</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>1.4693750000000001</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>1.9125000000000001</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>1.6728125</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>1.2247656250000001</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>1.7115820312500001</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>1.9782128906250001</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>1.4630175781250001</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>1.43439697265625</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>0.81014160156250004</v>
+      </c>
+    </row>
+    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C19" s="8">
         <v>0.4</v>
       </c>
@@ -12871,8 +17265,50 @@
       <c r="T19" s="10">
         <v>1.6727000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X19" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>1.7975000000000001</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0.8175</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>1.8643749999999999</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0.55593749999999997</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>1.3887499999999999</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>1.9906640625000001</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>1.1610351562500001</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0.8189697265625</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>1.1497973632812499</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0.77223632812499998</v>
+      </c>
+    </row>
+    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C20" s="8">
         <v>1</v>
       </c>
@@ -12918,8 +17354,50 @@
       <c r="T20" s="10">
         <v>1.8612</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X20" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1.7324999999999999</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0.92625000000000002</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0.83187500000000003</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>1.2784374999999999</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0.75796874999999997</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>1.844921875</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0.81304687499999995</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>1.446328125</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>1.820830078125</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>1.80099609375</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>1.1873413085937501</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>1.8807128906249999</v>
+      </c>
+    </row>
+    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C21" s="8">
         <v>0.6</v>
       </c>
@@ -12965,8 +17443,50 @@
       <c r="T21" s="10">
         <v>1.2332000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X21" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>1.2324999999999999</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>1.33375</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>1.7943750000000001</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>1.3009375000000001</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>1.9764062499999999</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>2.040546875</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>1.7730859375000001</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>1.05498046875</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>1.7916015624999999</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>1.0811669921875</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>1.194140625</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>1.2615441894531201</v>
+      </c>
+    </row>
+    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C22" s="8">
         <v>0.1</v>
       </c>
@@ -13012,8 +17532,50 @@
       <c r="T22" s="10">
         <v>1.8715999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X22" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>1.585</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0.89093750000000005</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>1.15140625</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>1.5958593750000001</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>1.3902734375000001</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>1.8187109374999999</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>1.204814453125</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>1.2239404296875001</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>1.4512792968749999</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>1.3998193359375</v>
+      </c>
+    </row>
+    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C23" s="8">
         <v>0.6</v>
       </c>
@@ -13060,7 +17622,7 @@
         <v>1.4941</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C24" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -13107,7 +17669,7 @@
         <v>1.2615000000000001</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C25" s="8">
         <v>0.8</v>
       </c>
@@ -13154,7 +17716,7 @@
         <v>1.9639</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C26" s="8">
         <v>0.1</v>
       </c>
@@ -13200,8 +17762,63 @@
       <c r="T26" s="10">
         <v>1.3314999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X26">
+        <v>100</v>
+      </c>
+      <c r="Y26">
+        <f>X26*2</f>
+        <v>200</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" ref="Z26:AK26" si="1">Y26*2</f>
+        <v>400</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="1"/>
+        <v>3200</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="1"/>
+        <v>6400</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="1"/>
+        <v>12800</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="1"/>
+        <v>25600</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="1"/>
+        <v>51200</v>
+      </c>
+      <c r="AH26">
+        <f>AG26*2</f>
+        <v>102400</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="1"/>
+        <v>204800</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="1"/>
+        <v>409600</v>
+      </c>
+      <c r="AK26">
+        <f>AJ26*2</f>
+        <v>819200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C27" s="8">
         <v>0.7</v>
       </c>
@@ -13247,8 +17864,64 @@
       <c r="T27" s="10">
         <v>1.6837</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="X27" s="1">
+        <f>AVERAGE(X3:X22)</f>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="Y27" s="1">
+        <f>AVERAGE(Y3:Y22)</f>
+        <v>1.1065</v>
+      </c>
+      <c r="Z27" s="1">
+        <f>AVERAGE(Z3:Z22)</f>
+        <v>1.4215000000000004</v>
+      </c>
+      <c r="AA27" s="1">
+        <f>AVERAGE(AA3:AA22)</f>
+        <v>1.1836249999999997</v>
+      </c>
+      <c r="AB27" s="1">
+        <f>AVERAGE(AB3:AB22)</f>
+        <v>1.3265312499999999</v>
+      </c>
+      <c r="AC27" s="1">
+        <f>AVERAGE(AC3:AC22)</f>
+        <v>1.4574218749999999</v>
+      </c>
+      <c r="AD27" s="1">
+        <f>AVERAGE(AD3:AD22)</f>
+        <v>1.3988281249999999</v>
+      </c>
+      <c r="AE27" s="1">
+        <f>AVERAGE(AE3:AE22)</f>
+        <v>1.4004023437500002</v>
+      </c>
+      <c r="AF27" s="1">
+        <f>AVERAGE(AF3:AF22)</f>
+        <v>1.3225156249999999</v>
+      </c>
+      <c r="AG27" s="1">
+        <f>AVERAGE(AG3:AG22)</f>
+        <v>1.33934765625</v>
+      </c>
+      <c r="AH27" s="1">
+        <f>AVERAGE(AH3:AH22)</f>
+        <v>1.4134038085937499</v>
+      </c>
+      <c r="AI27" s="1">
+        <f>AVERAGE(AI3:AI22)</f>
+        <v>1.2320292968750002</v>
+      </c>
+      <c r="AJ27" s="1">
+        <f>AVERAGE(AJ3:AJ22)</f>
+        <v>1.3681998291015627</v>
+      </c>
+      <c r="AK27" s="1">
+        <f>AVERAGE(AK3:AK22)</f>
+        <v>1.2790045776367172</v>
+      </c>
+    </row>
+    <row r="28" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C28" s="8">
         <v>0.8</v>
       </c>
@@ -13295,7 +17968,7 @@
         <v>2.0184000000000002</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C29" s="8">
         <v>1.2</v>
       </c>
@@ -13342,7 +18015,7 @@
         <v>1.2218</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C30" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -13389,7 +18062,7 @@
         <v>1.2253000000000001</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C31" s="8">
         <v>1.2</v>
       </c>
@@ -13436,7 +18109,7 @@
         <v>1.8858999999999999</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C32" s="8">
         <v>0.6</v>
       </c>
@@ -16862,43 +21535,43 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1">
-        <f t="shared" ref="K105:T105" si="0">AVERAGE(K3:K102)</f>
+        <f t="shared" ref="K105:T105" si="2">AVERAGE(K3:K102)</f>
         <v>1.2836299999999996</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3502200000000004</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3352166666666636</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2998325000000002</v>
       </c>
       <c r="O105" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3808160000000003</v>
       </c>
       <c r="P105" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3020983333333302</v>
       </c>
       <c r="Q105" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3575371428571388</v>
       </c>
       <c r="R105" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3978574999999998</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3883022222222179</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.3970500000000003</v>
       </c>
     </row>
@@ -16961,7 +21634,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="A1:J3"/>
+      <selection activeCell="J16" sqref="C15:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17335,15 +22008,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W107"/>
+  <dimension ref="A1:AH107"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24:AH25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1000</v>
       </c>
@@ -17389,8 +22062,63 @@
       <c r="R1">
         <v>100000</v>
       </c>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U1">
+        <v>100</v>
+      </c>
+      <c r="V1">
+        <f>U1*2</f>
+        <v>200</v>
+      </c>
+      <c r="W1">
+        <f t="shared" ref="W1:AH1" si="0">V1*2</f>
+        <v>400</v>
+      </c>
+      <c r="X1">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="Y1">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="Z1">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="AA1">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="AB1">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+      <c r="AC1">
+        <f t="shared" si="0"/>
+        <v>25600</v>
+      </c>
+      <c r="AD1">
+        <f t="shared" si="0"/>
+        <v>51200</v>
+      </c>
+      <c r="AE1">
+        <f>AD1*2</f>
+        <v>102400</v>
+      </c>
+      <c r="AF1">
+        <f t="shared" si="0"/>
+        <v>204800</v>
+      </c>
+      <c r="AG1">
+        <f t="shared" si="0"/>
+        <v>409600</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" si="0"/>
+        <v>819200</v>
+      </c>
+    </row>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B2" s="7">
         <v>12</v>
       </c>
@@ -17438,11 +22166,50 @@
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U2" s="7">
+        <v>3</v>
+      </c>
+      <c r="V2" s="7">
+        <v>6</v>
+      </c>
+      <c r="W2" s="7">
+        <v>8</v>
+      </c>
+      <c r="X2" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>73</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>80</v>
+      </c>
+      <c r="AG2" s="7">
+        <v>63</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
         <v>13</v>
       </c>
@@ -17490,11 +22257,50 @@
       </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U3" s="7">
+        <v>5</v>
+      </c>
+      <c r="V3" s="7">
+        <v>8</v>
+      </c>
+      <c r="W3" s="7">
+        <v>8</v>
+      </c>
+      <c r="X3" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>21</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>51</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>93</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
         <v>9</v>
       </c>
@@ -17542,11 +22348,50 @@
       </c>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U4" s="7">
+        <v>3</v>
+      </c>
+      <c r="V4" s="7">
+        <v>5</v>
+      </c>
+      <c r="W4" s="7">
+        <v>8</v>
+      </c>
+      <c r="X4" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>22</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>11</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>31</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>33</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>40</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>55</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>103</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>10</v>
       </c>
@@ -17594,11 +22439,50 @@
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U5" s="7">
+        <v>5</v>
+      </c>
+      <c r="V5" s="7">
+        <v>6</v>
+      </c>
+      <c r="W5" s="7">
+        <v>8</v>
+      </c>
+      <c r="X5" s="7">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>38</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>34</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>35</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>46</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>46</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
         <v>7</v>
       </c>
@@ -17646,11 +22530,50 @@
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U6" s="7">
+        <v>5</v>
+      </c>
+      <c r="V6" s="7">
+        <v>9</v>
+      </c>
+      <c r="W6" s="7">
+        <v>6</v>
+      </c>
+      <c r="X6" s="7">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>29</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>20</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>11</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>42</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>57</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>33</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>63</v>
+      </c>
+      <c r="AH6" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>11</v>
       </c>
@@ -17698,11 +22621,50 @@
       </c>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U7" s="7">
+        <v>5</v>
+      </c>
+      <c r="V7" s="7">
+        <v>6</v>
+      </c>
+      <c r="W7" s="7">
+        <v>9</v>
+      </c>
+      <c r="X7" s="7">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>14</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>34</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>26</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>24</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>54</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>33</v>
+      </c>
+      <c r="AG7" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>9</v>
       </c>
@@ -17750,11 +22712,50 @@
       </c>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U8" s="7">
+        <v>4</v>
+      </c>
+      <c r="V8" s="7">
+        <v>6</v>
+      </c>
+      <c r="W8" s="7">
+        <v>6</v>
+      </c>
+      <c r="X8" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>13</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>19</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>26</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>34</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>53</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>34</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>20</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>41</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>11</v>
       </c>
@@ -17802,11 +22803,50 @@
       </c>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U9" s="7">
+        <v>5</v>
+      </c>
+      <c r="V9" s="7">
+        <v>7</v>
+      </c>
+      <c r="W9" s="7">
+        <v>12</v>
+      </c>
+      <c r="X9" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>16</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>24</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>27</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>32</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>15</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>99</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>27</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>8</v>
       </c>
@@ -17854,11 +22894,50 @@
       </c>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U10" s="7">
+        <v>4</v>
+      </c>
+      <c r="V10" s="7">
+        <v>3</v>
+      </c>
+      <c r="W10" s="7">
+        <v>7</v>
+      </c>
+      <c r="X10" s="7">
+        <v>11</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>14</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>18</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>30</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>34</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>41</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>58</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>64</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>74</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>12</v>
       </c>
@@ -17906,11 +22985,50 @@
       </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U11" s="7">
+        <v>6</v>
+      </c>
+      <c r="V11" s="7">
+        <v>5</v>
+      </c>
+      <c r="W11" s="7">
+        <v>5</v>
+      </c>
+      <c r="X11" s="7">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>18</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>13</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>39</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>20</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>72</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>38</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>69</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>9</v>
       </c>
@@ -17958,11 +23076,50 @@
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U12" s="7">
+        <v>6</v>
+      </c>
+      <c r="V12" s="7">
+        <v>7</v>
+      </c>
+      <c r="W12" s="7">
+        <v>6</v>
+      </c>
+      <c r="X12" s="7">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>12</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>16</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>21</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>31</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>47</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>49</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>35</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>46</v>
+      </c>
+      <c r="AG12" s="7">
+        <v>72</v>
+      </c>
+      <c r="AH12" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>12</v>
       </c>
@@ -18010,11 +23167,50 @@
       </c>
       <c r="S13" s="7"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U13" s="7">
+        <v>4</v>
+      </c>
+      <c r="V13" s="7">
+        <v>9</v>
+      </c>
+      <c r="W13" s="7">
+        <v>12</v>
+      </c>
+      <c r="X13" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y13" s="7">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>17</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>29</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>15</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>28</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>33</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>54</v>
+      </c>
+      <c r="AG13" s="7">
+        <v>41</v>
+      </c>
+      <c r="AH13" s="7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>7</v>
       </c>
@@ -18062,11 +23258,50 @@
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U14" s="7">
+        <v>5</v>
+      </c>
+      <c r="V14" s="7">
+        <v>5</v>
+      </c>
+      <c r="W14" s="7">
+        <v>5</v>
+      </c>
+      <c r="X14" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>16</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>22</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>11</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>25</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>46</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>12</v>
+      </c>
+      <c r="AG14" s="7">
+        <v>51</v>
+      </c>
+      <c r="AH14" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>18</v>
       </c>
@@ -18114,11 +23349,50 @@
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U15" s="7">
+        <v>3</v>
+      </c>
+      <c r="V15" s="7">
+        <v>3</v>
+      </c>
+      <c r="W15" s="7">
+        <v>10</v>
+      </c>
+      <c r="X15" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>19</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>14</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>20</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>36</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>9</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>37</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>76</v>
+      </c>
+      <c r="AG15" s="7">
+        <v>89</v>
+      </c>
+      <c r="AH15" s="7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>11</v>
       </c>
@@ -18166,11 +23440,50 @@
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U16" s="7">
+        <v>6</v>
+      </c>
+      <c r="V16" s="7">
+        <v>6</v>
+      </c>
+      <c r="W16" s="7">
+        <v>13</v>
+      </c>
+      <c r="X16" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>16</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>23</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>29</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>18</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>35</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>39</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>73</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>30</v>
+      </c>
+      <c r="AH16" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>13</v>
       </c>
@@ -18218,11 +23531,50 @@
       </c>
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U17" s="7">
+        <v>7</v>
+      </c>
+      <c r="V17" s="7">
+        <v>7</v>
+      </c>
+      <c r="W17" s="7">
+        <v>9</v>
+      </c>
+      <c r="X17" s="7">
+        <v>11</v>
+      </c>
+      <c r="Y17" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>11</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>19</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>25</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>24</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>30</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>55</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>26</v>
+      </c>
+      <c r="AG17" s="7">
+        <v>77</v>
+      </c>
+      <c r="AH17" s="7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>9</v>
       </c>
@@ -18270,11 +23622,50 @@
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U18" s="7">
+        <v>7</v>
+      </c>
+      <c r="V18" s="7">
+        <v>7</v>
+      </c>
+      <c r="W18" s="7">
+        <v>11</v>
+      </c>
+      <c r="X18" s="7">
+        <v>14</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>9</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>19</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>29</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>21</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>21</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>44</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>34</v>
+      </c>
+      <c r="AG18" s="7">
+        <v>50</v>
+      </c>
+      <c r="AH18" s="7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>9</v>
       </c>
@@ -18322,11 +23713,50 @@
       </c>
       <c r="S19" s="7"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U19" s="7">
+        <v>6</v>
+      </c>
+      <c r="V19" s="7">
+        <v>6</v>
+      </c>
+      <c r="W19" s="7">
+        <v>9</v>
+      </c>
+      <c r="X19" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>18</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>19</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>28</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>20</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>57</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>31</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>36</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>70</v>
+      </c>
+      <c r="AH19" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>8</v>
       </c>
@@ -18374,11 +23804,50 @@
       </c>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U20" s="7">
+        <v>6</v>
+      </c>
+      <c r="V20" s="7">
+        <v>5</v>
+      </c>
+      <c r="W20" s="7">
+        <v>7</v>
+      </c>
+      <c r="X20" s="7">
+        <v>7</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>13</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>21</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>16</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>28</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>55</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>35</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>49</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>80</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>72</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>10</v>
       </c>
@@ -18426,11 +23895,50 @@
       </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U21" s="7">
+        <v>3</v>
+      </c>
+      <c r="V21" s="7">
+        <v>4</v>
+      </c>
+      <c r="W21" s="7">
+        <v>6</v>
+      </c>
+      <c r="X21" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>14</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>16</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>26</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>30</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>44</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>34</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>17</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>88</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>11</v>
       </c>
@@ -18478,11 +23986,9 @@
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U22" s="13"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>11</v>
       </c>
@@ -18534,7 +24040,7 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>16</v>
       </c>
@@ -18582,11 +24088,63 @@
       </c>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <v>100</v>
+      </c>
+      <c r="V24">
+        <f>U24*2</f>
+        <v>200</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:AH24" si="1">V24*2</f>
+        <v>400</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="1"/>
+        <v>3200</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="1"/>
+        <v>6400</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="1"/>
+        <v>12800</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="1"/>
+        <v>25600</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="1"/>
+        <v>51200</v>
+      </c>
+      <c r="AE24">
+        <f>AD24*2</f>
+        <v>102400</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="1"/>
+        <v>204800</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="1"/>
+        <v>409600</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="1"/>
+        <v>819200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>8</v>
       </c>
@@ -18634,11 +24192,64 @@
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="U25" s="14">
+        <f>AVERAGE(U2:U21)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V25" s="14">
+        <f t="shared" ref="V25:AH25" si="2">AVERAGE(V2:V21)</f>
+        <v>6</v>
+      </c>
+      <c r="W25" s="14">
+        <f t="shared" si="2"/>
+        <v>8.25</v>
+      </c>
+      <c r="X25" s="14">
+        <f t="shared" si="2"/>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="Y25" s="14">
+        <f t="shared" si="2"/>
+        <v>12.3</v>
+      </c>
+      <c r="Z25" s="14">
+        <f t="shared" si="2"/>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AA25" s="14">
+        <f t="shared" si="2"/>
+        <v>17.45</v>
+      </c>
+      <c r="AB25" s="14">
+        <f t="shared" si="2"/>
+        <v>24.15</v>
+      </c>
+      <c r="AC25" s="14">
+        <f t="shared" si="2"/>
+        <v>30.15</v>
+      </c>
+      <c r="AD25" s="14">
+        <f t="shared" si="2"/>
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AE25" s="14">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="AF25" s="14">
+        <f t="shared" si="2"/>
+        <v>48.65</v>
+      </c>
+      <c r="AG25" s="14">
+        <f t="shared" si="2"/>
+        <v>65.95</v>
+      </c>
+      <c r="AH25" s="14">
+        <f t="shared" si="2"/>
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>12</v>
       </c>
@@ -18690,7 +24301,7 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>10</v>
       </c>
@@ -18742,7 +24353,7 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>9</v>
       </c>
@@ -18794,7 +24405,7 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>4</v>
       </c>
@@ -18846,7 +24457,7 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>7</v>
       </c>
@@ -18898,7 +24509,7 @@
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>10</v>
       </c>
@@ -18950,7 +24561,7 @@
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>9</v>
       </c>
@@ -22603,59 +28214,59 @@
         <v>10.01</v>
       </c>
       <c r="C103">
-        <f t="shared" ref="C103:R103" si="0" xml:space="preserve"> AVERAGE(C2:C101)</f>
+        <f t="shared" ref="C103:R103" si="3" xml:space="preserve"> AVERAGE(C2:C101)</f>
         <v>13.02</v>
       </c>
       <c r="D103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>14.08</v>
       </c>
       <c r="E103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>15.79</v>
       </c>
       <c r="F103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>17.600000000000001</v>
       </c>
       <c r="G103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18.07</v>
       </c>
       <c r="H103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>19.329999999999998</v>
       </c>
       <c r="I103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>19.57</v>
       </c>
       <c r="J103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20.239999999999998</v>
       </c>
       <c r="K103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>22.05</v>
       </c>
       <c r="N103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="O103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.15</v>
       </c>
       <c r="P103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>22.29</v>
       </c>
       <c r="R103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>43.95</v>
       </c>
     </row>
@@ -22710,24 +28321,24 @@
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22744,7 +28355,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="J16" sqref="C15:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Meetresultaten.xlsx
+++ b/Meetresultaten.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\GitHub\projectMeetkunde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tibo\Documents\GitHub\projectMeetkunde\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A1C4A8-B02D-41A0-98BF-168B59D3DCB7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Uitvoeringstijd" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="k_max" sheetId="4" r:id="rId5"/>
     <sheet name="Tijd Dimensies" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -124,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,17 +210,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -237,7 +238,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -281,7 +282,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -548,8 +548,8 @@
         <c:axId val="2001086832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800000"/>
-          <c:min val="6250"/>
+          <c:max val="806250"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -598,7 +598,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -716,7 +715,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -835,7 +833,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -872,7 +870,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1021,6 +1018,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1064,7 +1062,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1141,7 +1138,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="r"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1182,7 +1179,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1250,7 +1246,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1094836047"/>
-        <c:crosses val="autoZero"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1301,7 +1297,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1343,7 +1339,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1573,7 +1568,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1691,7 +1685,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1810,7 +1803,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1847,7 +1840,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1996,6 +1988,8 @@
         <c:axId val="1217173471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="9"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2039,7 +2033,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2157,7 +2150,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2276,7 +2268,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2318,7 +2310,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2648,7 +2639,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2766,7 +2756,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2885,7 +2874,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2917,7 +2906,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-BE"/>
-              <a:t>Vergelijing</a:t>
+              <a:t>Vergelijking</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="nl-BE" baseline="0"/>
@@ -2927,7 +2916,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3330,7 +3318,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3453,7 +3440,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3542,7 +3528,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3612,7 +3597,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4671,7 +4656,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4982,7 +4967,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5024,7 +5009,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5207,7 +5191,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5325,7 +5308,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5444,7 +5426,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5486,7 +5468,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5704,7 +5685,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5822,7 +5802,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5941,7 +5920,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5983,7 +5962,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6213,7 +6191,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6333,7 +6310,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6452,7 +6428,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6489,7 +6465,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6638,6 +6613,7 @@
         <c:axId val="1246611919"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6681,7 +6657,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6756,6 +6731,8 @@
         <c:axId val="1246609839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1400"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6799,7 +6776,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6829,7 +6805,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13604,7 +13580,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafiek 4"/>
+        <xdr:cNvPr id="5" name="Grafiek 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13636,7 +13618,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Grafiek 6"/>
+        <xdr:cNvPr id="7" name="Grafiek 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -13668,7 +13656,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13703,7 +13697,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13733,7 +13733,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafiek 2"/>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13768,7 +13774,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafiek 2"/>
+        <xdr:cNvPr id="3" name="Grafiek 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13798,7 +13810,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafiek 3"/>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13828,7 +13846,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13863,7 +13887,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13898,7 +13928,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafiek 3"/>
+        <xdr:cNvPr id="4" name="Grafiek 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13928,7 +13964,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -13963,7 +14005,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -14243,11 +14291,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView topLeftCell="R16" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14861,10 +14909,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -15676,11 +15724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AK106"/>
   <sheetViews>
-    <sheetView topLeftCell="R19" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:AK2"/>
+    <sheetView topLeftCell="U18" workbookViewId="0">
+      <selection activeCell="W44" sqref="W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17770,7 +17818,7 @@
         <v>200</v>
       </c>
       <c r="Z26">
-        <f t="shared" ref="Z26:AK26" si="1">Y26*2</f>
+        <f t="shared" ref="Z26:AJ26" si="1">Y26*2</f>
         <v>400</v>
       </c>
       <c r="AA26">
@@ -17865,59 +17913,59 @@
         <v>1.6837</v>
       </c>
       <c r="X27" s="1">
-        <f>AVERAGE(X3:X22)</f>
+        <f t="shared" ref="X27:AK27" si="2">AVERAGE(X3:X22)</f>
         <v>1.1600000000000001</v>
       </c>
       <c r="Y27" s="1">
-        <f>AVERAGE(Y3:Y22)</f>
+        <f t="shared" si="2"/>
         <v>1.1065</v>
       </c>
       <c r="Z27" s="1">
-        <f>AVERAGE(Z3:Z22)</f>
+        <f t="shared" si="2"/>
         <v>1.4215000000000004</v>
       </c>
       <c r="AA27" s="1">
-        <f>AVERAGE(AA3:AA22)</f>
+        <f t="shared" si="2"/>
         <v>1.1836249999999997</v>
       </c>
       <c r="AB27" s="1">
-        <f>AVERAGE(AB3:AB22)</f>
+        <f t="shared" si="2"/>
         <v>1.3265312499999999</v>
       </c>
       <c r="AC27" s="1">
-        <f>AVERAGE(AC3:AC22)</f>
+        <f t="shared" si="2"/>
         <v>1.4574218749999999</v>
       </c>
       <c r="AD27" s="1">
-        <f>AVERAGE(AD3:AD22)</f>
+        <f t="shared" si="2"/>
         <v>1.3988281249999999</v>
       </c>
       <c r="AE27" s="1">
-        <f>AVERAGE(AE3:AE22)</f>
+        <f t="shared" si="2"/>
         <v>1.4004023437500002</v>
       </c>
       <c r="AF27" s="1">
-        <f>AVERAGE(AF3:AF22)</f>
+        <f t="shared" si="2"/>
         <v>1.3225156249999999</v>
       </c>
       <c r="AG27" s="1">
-        <f>AVERAGE(AG3:AG22)</f>
+        <f t="shared" si="2"/>
         <v>1.33934765625</v>
       </c>
       <c r="AH27" s="1">
-        <f>AVERAGE(AH3:AH22)</f>
+        <f t="shared" si="2"/>
         <v>1.4134038085937499</v>
       </c>
       <c r="AI27" s="1">
-        <f>AVERAGE(AI3:AI22)</f>
+        <f t="shared" si="2"/>
         <v>1.2320292968750002</v>
       </c>
       <c r="AJ27" s="1">
-        <f>AVERAGE(AJ3:AJ22)</f>
+        <f t="shared" si="2"/>
         <v>1.3681998291015627</v>
       </c>
       <c r="AK27" s="1">
-        <f>AVERAGE(AK3:AK22)</f>
+        <f t="shared" si="2"/>
         <v>1.2790045776367172</v>
       </c>
     </row>
@@ -21535,43 +21583,43 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1">
-        <f t="shared" ref="K105:T105" si="2">AVERAGE(K3:K102)</f>
+        <f t="shared" ref="K105:T105" si="3">AVERAGE(K3:K102)</f>
         <v>1.2836299999999996</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3502200000000004</v>
       </c>
       <c r="M105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3352166666666636</v>
       </c>
       <c r="N105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2998325000000002</v>
       </c>
       <c r="O105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3808160000000003</v>
       </c>
       <c r="P105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3020983333333302</v>
       </c>
       <c r="Q105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3575371428571388</v>
       </c>
       <c r="R105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3978574999999998</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3883022222222179</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3970500000000003</v>
       </c>
     </row>
@@ -21630,10 +21678,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="J16" sqref="C15:J16"/>
     </sheetView>
   </sheetViews>
@@ -22007,10 +22055,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH107"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="F104" workbookViewId="0">
       <selection activeCell="U24" sqref="U24:AH25"/>
     </sheetView>
   </sheetViews>
@@ -23986,7 +24034,7 @@
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
-      <c r="U22" s="13"/>
+      <c r="U22" s="12"/>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
@@ -24192,59 +24240,59 @@
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="14">
+      <c r="U25" s="13">
         <f>AVERAGE(U2:U21)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V25" s="13">
         <f t="shared" ref="V25:AH25" si="2">AVERAGE(V2:V21)</f>
         <v>6</v>
       </c>
-      <c r="W25" s="14">
+      <c r="W25" s="13">
         <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
-      <c r="X25" s="14">
+      <c r="X25" s="13">
         <f t="shared" si="2"/>
         <v>10.050000000000001</v>
       </c>
-      <c r="Y25" s="14">
+      <c r="Y25" s="13">
         <f t="shared" si="2"/>
         <v>12.3</v>
       </c>
-      <c r="Z25" s="14">
+      <c r="Z25" s="13">
         <f t="shared" si="2"/>
         <v>16.899999999999999</v>
       </c>
-      <c r="AA25" s="14">
+      <c r="AA25" s="13">
         <f t="shared" si="2"/>
         <v>17.45</v>
       </c>
-      <c r="AB25" s="14">
+      <c r="AB25" s="13">
         <f t="shared" si="2"/>
         <v>24.15</v>
       </c>
-      <c r="AC25" s="14">
+      <c r="AC25" s="13">
         <f t="shared" si="2"/>
         <v>30.15</v>
       </c>
-      <c r="AD25" s="14">
+      <c r="AD25" s="13">
         <f t="shared" si="2"/>
         <v>34.299999999999997</v>
       </c>
-      <c r="AE25" s="14">
+      <c r="AE25" s="13">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="AF25" s="14">
+      <c r="AF25" s="13">
         <f t="shared" si="2"/>
         <v>48.65</v>
       </c>
-      <c r="AG25" s="14">
+      <c r="AG25" s="13">
         <f t="shared" si="2"/>
         <v>65.95</v>
       </c>
-      <c r="AH25" s="14">
+      <c r="AH25" s="13">
         <f t="shared" si="2"/>
         <v>91.2</v>
       </c>
@@ -28321,24 +28369,24 @@
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -28351,11 +28399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="C15:J16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
